--- a/csv/norm.xlsx
+++ b/csv/norm.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\loren\Documents\workspace\SSD\DSS19\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1103F-AF81-497F-A8DB-F1A242B9B579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BBC193-3581-4430-9EB4-C9391DDE8B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6959ADD6-ED51-4CBB-8F87-4EA804ED1F46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{6959ADD6-ED51-4CBB-8F87-4EA804ED1F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>DATI</t>
   </si>
@@ -51,6 +52,21 @@
   </si>
   <si>
     <t>DATINORM</t>
+  </si>
+  <si>
+    <t>Dati</t>
+  </si>
+  <si>
+    <t>Dati ord</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
+  <si>
+    <t>Dati Z</t>
+  </si>
+  <si>
+    <t>Dati Norm</t>
   </si>
 </sst>
 </file>
@@ -554,7 +570,1503 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dati</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>-2.5430480700197147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1324845536780361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9193104606888531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7688250385187088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6502045873916913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5510941585326439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4652337926855243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3889920588554119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3200653902685093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2568962440091151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1983797023069258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1437019781394073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0922453486721755</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0435291298908769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.99717140404729787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.95286329271946546</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.91035112842029453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.8694237732888872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.82990339261834867</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.79163860774337558</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.75449932497410443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.71837276893037927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.68316039685495356</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.64877546766217198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.61514110459597449</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.58218873487072897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.54985682062394348</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.51808981739448701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.48683731204153002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.45605330343802281</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.42569559768001436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.39572529581448795</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.36610635680057024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.3368052219996065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.30779049023442906</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.27903263457919375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.25050375369191913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.22217735179465634</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.19402814242392666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.16603187187835602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.13816515892751136</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.11040534785060145</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.2730372272254882E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.5118627574930336E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.7548849908662302E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.754884990866216E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5118627574930051E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.2730372272254452E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11040534785060088</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13816515892751066</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16603187187835516</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19402814242392563</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2221773517946552</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25050375369191785</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27903263457919231</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30779049023442739</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33680522199960472</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.3661063568005683</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39572529581448568</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42569559768001214</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.45605330343802025</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.48683731204152736</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51808981739448401</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.54985682062394048</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.58218873487072575</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61514110459597104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.64877546766216831</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68316039685494967</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.71837276893037549</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.75449932497409955</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.79163860774337125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.82990339261834456</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.86942377328888221</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.91035112842028887</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9528632927194598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99717140404729399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0435291298908635</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.092245348672169</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1437019781394</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1983797023069183</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2568962440091056</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3200653902684991</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3889920588553986</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4652337926855117</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5510941585326288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6502045873916737</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7688250385186861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9193104606888227</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1324845536779886</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.5430480700195868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>54.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>68.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C40E-4175-9E52-2516106E0024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dati Norm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>-2.5430480700197147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1324845536780361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9193104606888531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7688250385187088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6502045873916913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5510941585326439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4652337926855243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3889920588554119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3200653902685093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2568962440091151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1983797023069258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1437019781394073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0922453486721755</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0435291298908769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.99717140404729787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.95286329271946546</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.91035112842029453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.8694237732888872</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.82990339261834867</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.79163860774337558</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.75449932497410443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.71837276893037927</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.68316039685495356</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.64877546766217198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.61514110459597449</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.58218873487072897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.54985682062394348</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.51808981739448701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.48683731204153002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.45605330343802281</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.42569559768001436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.39572529581448795</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.36610635680057024</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.3368052219996065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.30779049023442906</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.27903263457919375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.25050375369191913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.22217735179465634</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.19402814242392666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.16603187187835602</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.13816515892751136</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.11040534785060145</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.2730372272254882E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.5118627574930336E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.7548849908662302E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.754884990866216E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5118627574930051E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.2730372272254452E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11040534785060088</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13816515892751066</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.16603187187835516</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19402814242392563</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2221773517946552</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.25050375369191785</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27903263457919231</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30779049023442739</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33680522199960472</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.3661063568005683</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39572529581448568</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42569559768001214</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.45605330343802025</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.48683731204152736</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.51808981739448401</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.54985682062394048</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.58218873487072575</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61514110459597104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.64877546766216831</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68316039685494967</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.71837276893037549</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.75449932497409955</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.79163860774337125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.82990339261834456</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.86942377328888221</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.91035112842028887</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.9528632927194598</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99717140404729399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0435291298908635</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.092245348672169</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1437019781394</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.1983797023069183</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2568962440091056</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3200653902684991</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3889920588553986</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4652337926855117</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5510941585326288</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6502045873916737</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7688250385186861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9193104606888227</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1324845536779886</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.5430480700195868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>27.678388694388708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.074183533777983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.837358916029231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.082032638044552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.063149322187343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.882897471872226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.593053575974466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.223653412495075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.793749916853997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.316225617538905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.800219354005812</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.252462006280567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.678062796029678</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.080997488829851</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.464424948698053</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.830899927115091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.182520522692442</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.521033069017733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.847908447345375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.164398719463556</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.471579897884567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.770384754368919</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.061628341821233</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.346028100830601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.624219883539531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.896770859465782</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44.164190011866644</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.426936752226489</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.685428050579546</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.940044384936222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.19113474354215</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.439020861911217</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.68400083759893</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45.926352236066968</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.166334778286959</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.404192683188278</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.640156724401173</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.874446050053621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.107269805962957</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47.338828595910762</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.56931580742048</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.798918827282925</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>48.027820167778465</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.256198521961494</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.484229764377851</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48.712087912087917</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.939946059797975</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49.167977302214339</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.396355656397361</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.625256996892901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49.854860016755346</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.085347228265064</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.316906018212869</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.549729774122198</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.784019099774653</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51.019983140987542</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51.25784104588886</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.497823588108851</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.740174986576889</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51.985154962264602</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.233041080633669</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.48413143923959</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>52.738747773596266</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>52.997239071949323</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>53.259985812309161</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>53.527404964710023</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>53.799955940636274</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>54.078147723345197</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>54.362547482354572</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54.653791069806879</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>54.952595926291231</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55.259777104712242</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.576267376830423</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>55.903142755158058</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.241655301483341</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56.5932758970607</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>56.959750875477745</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>57.343178335345875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>57.746113028146105</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>58.17171381789521</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>58.623956470169958</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>59.107950206636858</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59.630425907321751</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60.200522411680652</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>60.831122248201261</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>61.541278352303479</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62.361026501988349</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>63.342143186131096</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>64.586816908146346</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>66.349992290397452</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>69.745787129786066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C40E-4175-9E52-2516106E0024}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413862768"/>
+        <c:axId val="413867688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413862768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413867688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413867688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413862768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1110,6 +2622,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1131,6 +3159,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E5CB0E-392D-47D2-A4EB-D31EE0785CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0BED7E-C9D6-40E0-8C7B-6231A9EFE1F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30D021C-281C-441B-BEF8-F8138CA50041}">
   <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,4 +3819,1884 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC551965-BCEC-4F38-B53F-2462C8CACD67}">
+  <dimension ref="B1:K92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f>COUNT(D2:D92)</f>
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>27.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(D2:D92)</f>
+        <v>48.712087912087917</v>
+      </c>
+      <c r="I2">
+        <f>I3-1/$G$1</f>
+        <v>5.4945054945052408E-3</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.NORM.S.INV(I2)</f>
+        <v>-2.5430480700197147</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.NORM.INV(I2,$G$2,$G$3)</f>
+        <v>27.678388694388708</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>32.6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.STDEV.S(D2:D92)</f>
+        <v>8.2710584458343117</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I2:I44" si="0">I4-1/$G$1</f>
+        <v>1.6483516483516231E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">_xlfn.NORM.S.INV(I3)</f>
+        <v>-2.1324845536780361</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="2">_xlfn.NORM.INV(I3,$G$2,$G$3)</f>
+        <v>31.074183533777983</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>33.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.7472527472527222E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-1.9193104606888531</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>32.837358916029231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>57.8</v>
+      </c>
+      <c r="D5">
+        <v>33.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538214E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-1.7688250385187088</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>34.082032638044552</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>58.2</v>
+      </c>
+      <c r="D6">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4.9450549450549205E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-1.6502045873916913</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>35.063149322187343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>55.6</v>
+      </c>
+      <c r="D7">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>6.0439560439560197E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-1.5510941585326439</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>35.882897471872226</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>56.7</v>
+      </c>
+      <c r="D8">
+        <v>37.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571189E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-1.4652337926855243</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>36.593053575974466</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>8.241758241758218E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-1.3889920588554119</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>37.223653412495075</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>53.8</v>
+      </c>
+      <c r="D10">
+        <v>39.1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>9.3406593406593172E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-1.3200653902685093</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>37.793749916853997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.10439560439560416</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-1.2568962440091151</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>38.316225617538905</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>49.2</v>
+      </c>
+      <c r="D12">
+        <v>40.4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461516</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-1.1983797023069258</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>38.800219354005812</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>40.5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.12637362637362615</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-1.1437019781394073</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>39.252462006280567</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>50.2</v>
+      </c>
+      <c r="D14">
+        <v>40.6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.13736263736263712</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-1.0922453486721755</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>39.678062796029678</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>53.8</v>
+      </c>
+      <c r="D15">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.1483516483516481</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-1.0435291298908769</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>40.080997488829851</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>53.8</v>
+      </c>
+      <c r="D16">
+        <v>40.9</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.15934065934065908</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-0.99717140404729787</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>40.464424948698053</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>56.2</v>
+      </c>
+      <c r="D17">
+        <v>41.8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.17032967032967006</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-0.95286329271946546</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>40.830899927115091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>60.3</v>
+      </c>
+      <c r="D18">
+        <v>41.9</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.18131868131868104</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-0.91035112842029453</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>41.182520522692442</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>56.2</v>
+      </c>
+      <c r="D19">
+        <v>42.1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.19230769230769201</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-0.8694237732888872</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>41.521033069017733</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>56.4</v>
+      </c>
+      <c r="D20">
+        <v>42.5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.20329670329670299</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>-0.82990339261834867</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>41.847908447345375</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>57.2</v>
+      </c>
+      <c r="D21">
+        <v>42.6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571397</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>-0.79163860774337558</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>42.164398719463556</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>54.3</v>
+      </c>
+      <c r="D22">
+        <v>42.6</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.22527472527472495</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-0.75449932497410443</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>42.471579897884567</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>51.5</v>
+      </c>
+      <c r="D23">
+        <v>42.7</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.23626373626373592</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-0.71837276893037927</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>42.770384754368919</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>47.2</v>
+      </c>
+      <c r="D24">
+        <v>42.8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.2472527472527469</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-0.68316039685495356</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>43.061628341821233</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>45.2</v>
+      </c>
+      <c r="D25">
+        <v>42.9</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.25824175824175788</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>-0.64877546766217198</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>43.346028100830601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>43.1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0.26923076923076888</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>-0.61514110459597449</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>43.624219883539531</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>49.1</v>
+      </c>
+      <c r="D27">
+        <v>43.2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0.28021978021977989</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>-0.58218873487072897</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>43.896770859465782</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>42.1</v>
+      </c>
+      <c r="D28">
+        <v>43.7</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.2912087912087909</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>-0.54985682062394348</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>44.164190011866644</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>43.2</v>
+      </c>
+      <c r="D29">
+        <v>44.3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.3021978021978019</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>-0.51808981739448701</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>44.426936752226489</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>40.9</v>
+      </c>
+      <c r="D30">
+        <v>44.5</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0.31318681318681291</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>-0.48683731204153002</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>44.685428050579546</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>45.3</v>
+      </c>
+      <c r="D31">
+        <v>44.7</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.32417582417582391</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>-0.45605330343802281</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>44.940044384936222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>44.5</v>
+      </c>
+      <c r="D32">
+        <v>44.8</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0.33516483516483492</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>-0.42569559768001436</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>45.19113474354215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>42.6</v>
+      </c>
+      <c r="D33">
+        <v>45</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>0.34615384615384592</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>-0.39572529581448795</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>45.439020861911217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D34">
+        <v>45.2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285693</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>-0.36610635680057024</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>45.68400083759893</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>39.1</v>
+      </c>
+      <c r="D35">
+        <v>45.3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.36813186813186793</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>-0.3368052219996065</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>45.926352236066968</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>40.4</v>
+      </c>
+      <c r="D36">
+        <v>45.3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.37912087912087894</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>-0.30779049023442906</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>46.166334778286959</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>32.6</v>
+      </c>
+      <c r="D37">
+        <v>45.3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0.39010989010988995</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-0.27903263457919375</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>46.404192683188278</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>33.5</v>
+      </c>
+      <c r="D38">
+        <v>45.7</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.40109890109890095</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-0.25050375369191913</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>46.640156724401173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>27.2</v>
+      </c>
+      <c r="D39">
+        <v>45.9</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.41208791208791196</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-0.22217735179465634</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>46.874446050053621</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>33.5</v>
+      </c>
+      <c r="D40">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0.42307692307692296</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>-0.19402814242392666</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>47.107269805962957</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.43406593406593397</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-0.16603187187835602</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>47.338828595910762</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D42">
+        <v>46.1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0.44505494505494497</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>-0.13816515892751136</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>47.56931580742048</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="D43">
+        <v>46.7</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0.45604395604395598</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>-0.11040534785060145</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>47.798918827282925</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>46.9</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>0.46703296703296698</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>-8.2730372272254882E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>48.027820167778465</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>42.6</v>
+      </c>
+      <c r="D45">
+        <v>47.2</v>
+      </c>
+      <c r="I45">
+        <f>I46-1/$G$1</f>
+        <v>0.47802197802197799</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>-5.5118627574930336E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>48.256198521961494</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>37.5</v>
+      </c>
+      <c r="D46">
+        <v>47.2</v>
+      </c>
+      <c r="I46">
+        <f>I47-1/$G$1</f>
+        <v>0.48901098901098899</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>-2.7548849908662302E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>48.484229764377851</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>41.9</v>
+      </c>
+      <c r="D47">
+        <v>47.5</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>48.712087912087917</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>42.9</v>
+      </c>
+      <c r="D48">
+        <v>47.7</v>
+      </c>
+      <c r="I48">
+        <f>I47+1/$G$1</f>
+        <v>0.51098901098901095</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>2.754884990866216E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>48.939946059797975</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>50.2</v>
+      </c>
+      <c r="D49">
+        <v>47.8</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I48:I92" si="3">I48+1/$G$1</f>
+        <v>0.5219780219780219</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>5.5118627574930051E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>49.167977302214339</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>42.8</v>
+      </c>
+      <c r="D50">
+        <v>48.5</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0.53296703296703285</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>8.2730372272254452E-2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>49.396355656397361</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>40.5</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0.5439560439560438</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0.11040534785060088</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>49.625256996892901</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>43.1</v>
+      </c>
+      <c r="D52">
+        <v>49.1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0.55494505494505475</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>0.13816515892751066</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>49.854860016755346</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>45.7</v>
+      </c>
+      <c r="D53">
+        <v>49.1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0.5659340659340657</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>0.16603187187835516</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>50.085347228265064</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="D54">
+        <v>49.2</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>0.57692307692307665</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0.19402814242392563</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>50.316906018212869</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>45.9</v>
+      </c>
+      <c r="D55">
+        <v>49.9</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>0.5879120879120876</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0.2221773517946552</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>50.549729774122198</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>47.7</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>0.59890109890109855</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0.25050375369191785</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>50.784019099774653</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>43.7</v>
+      </c>
+      <c r="D57">
+        <v>50.2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>0.6098901098901095</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>0.27903263457919231</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>51.019983140987542</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>44.3</v>
+      </c>
+      <c r="D58">
+        <v>50.2</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>0.62087912087912045</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0.30779049023442739</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>51.25784104588886</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>41.8</v>
+      </c>
+      <c r="D59">
+        <v>51</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>0.6318681318681314</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0.33680522199960472</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>51.497823588108851</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>46.1</v>
+      </c>
+      <c r="D60">
+        <v>51.5</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>0.64285714285714235</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0.3661063568005683</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>51.740174986576889</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>42.7</v>
+      </c>
+      <c r="D61">
+        <v>52</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>0.6538461538461533</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>0.39572529581448568</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>51.985154962264602</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>40.6</v>
+      </c>
+      <c r="D62">
+        <v>52.1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>0.66483516483516425</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>0.42569559768001214</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>52.233041080633669</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>44.7</v>
+      </c>
+      <c r="D63">
+        <v>53</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>0.6758241758241752</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>0.45605330343802025</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>52.48413143923959</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>47.8</v>
+      </c>
+      <c r="D64">
+        <v>53.8</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>0.68681318681318615</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>0.48683731204152736</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>52.738747773596266</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>46.7</v>
+      </c>
+      <c r="D65">
+        <v>53.8</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>0.6978021978021971</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0.51808981739448401</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>52.997239071949323</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>49.1</v>
+      </c>
+      <c r="D66">
+        <v>53.8</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>0.70879120879120805</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0.54985682062394048</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>53.259985812309161</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>52.1</v>
+      </c>
+      <c r="D67">
+        <v>53.8</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>0.719780219780219</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J92" si="4">_xlfn.NORM.S.INV(I67)</f>
+        <v>0.58218873487072575</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K92" si="5">_xlfn.NORM.INV(I67,$G$2,$G$3)</f>
+        <v>53.527404964710023</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>54.4</v>
+      </c>
+      <c r="D68">
+        <v>54.3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>0.61514110459597104</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="5"/>
+        <v>53.799955940636274</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>54.4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>0.7417582417582409</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>0.64877546766216831</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="5"/>
+        <v>54.078147723345197</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>48.5</v>
+      </c>
+      <c r="D70">
+        <v>55</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>0.75274725274725185</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="4"/>
+        <v>0.68316039685494967</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="5"/>
+        <v>54.362547482354572</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>46</v>
+      </c>
+      <c r="D71">
+        <v>55</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>0.7637362637362628</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>0.71837276893037549</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="5"/>
+        <v>54.653791069806879</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>46.9</v>
+      </c>
+      <c r="D72">
+        <v>55.2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>0.77472527472527375</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="4"/>
+        <v>0.75449932497409955</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="5"/>
+        <v>54.952595926291231</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>44.8</v>
+      </c>
+      <c r="D73">
+        <v>55.3</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>0.7857142857142847</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="4"/>
+        <v>0.79163860774337125</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="5"/>
+        <v>55.259777104712242</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>45.3</v>
+      </c>
+      <c r="D74">
+        <v>55.6</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>0.79670329670329565</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="4"/>
+        <v>0.82990339261834456</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="5"/>
+        <v>55.576267376830423</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>47.5</v>
+      </c>
+      <c r="D75">
+        <v>56.2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>0.8076923076923066</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="4"/>
+        <v>0.86942377328888221</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="5"/>
+        <v>55.903142755158058</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>42.5</v>
+      </c>
+      <c r="D76">
+        <v>56.2</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>0.81868131868131755</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="4"/>
+        <v>0.91035112842028887</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="5"/>
+        <v>56.241655301483341</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>47.2</v>
+      </c>
+      <c r="D77">
+        <v>56.4</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>0.8296703296703285</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="4"/>
+        <v>0.9528632927194598</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="5"/>
+        <v>56.5932758970607</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>49.9</v>
+      </c>
+      <c r="D78">
+        <v>56.7</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>0.84065934065933945</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="4"/>
+        <v>0.99717140404729399</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="5"/>
+        <v>56.959750875477745</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>55.3</v>
+      </c>
+      <c r="D79">
+        <v>57.2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>0.8516483516483504</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="4"/>
+        <v>1.0435291298908635</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="5"/>
+        <v>57.343178335345875</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>58.6</v>
+      </c>
+      <c r="D80">
+        <v>57.8</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>0.86263736263736135</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="4"/>
+        <v>1.092245348672169</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="5"/>
+        <v>57.746113028146105</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>66.7</v>
+      </c>
+      <c r="D81">
+        <v>58.2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>0.8736263736263723</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="4"/>
+        <v>1.1437019781394</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="5"/>
+        <v>58.17171381789521</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D82">
+        <v>58.6</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>0.88461538461538325</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="4"/>
+        <v>1.1983797023069183</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="5"/>
+        <v>58.623956470169958</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D83">
+        <v>60</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>0.8956043956043942</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="4"/>
+        <v>1.2568962440091056</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="5"/>
+        <v>59.107950206636858</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>63.4</v>
+      </c>
+      <c r="D84">
+        <v>60.3</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>0.90659340659340515</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="4"/>
+        <v>1.3200653902684991</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="5"/>
+        <v>59.630425907321751</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>60.9</v>
+      </c>
+      <c r="D85">
+        <v>60.9</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>0.9175824175824161</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="4"/>
+        <v>1.3889920588553986</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="5"/>
+        <v>60.200522411680652</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>68.5</v>
+      </c>
+      <c r="D86">
+        <v>62.3</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>0.92857142857142705</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="4"/>
+        <v>1.4652337926855117</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="5"/>
+        <v>60.831122248201261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>64.5</v>
+      </c>
+      <c r="D87">
+        <v>63.4</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>0.939560439560438</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="4"/>
+        <v>1.5510941585326288</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="5"/>
+        <v>61.541278352303479</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>62.3</v>
+      </c>
+      <c r="D88">
+        <v>64.5</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>0.95054945054944895</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="4"/>
+        <v>1.6502045873916737</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="5"/>
+        <v>62.361026501988349</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>55.2</v>
+      </c>
+      <c r="D89">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>0.9615384615384599</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="4"/>
+        <v>1.7688250385186861</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="5"/>
+        <v>63.342143186131096</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>53.8</v>
+      </c>
+      <c r="D90">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>0.97252747252747085</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="4"/>
+        <v>1.9193104606888227</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="5"/>
+        <v>64.586816908146346</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>45.3</v>
+      </c>
+      <c r="D91">
+        <v>66.7</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>0.9835164835164818</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="4"/>
+        <v>2.1324845536779886</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="5"/>
+        <v>66.349992290397452</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>46</v>
+      </c>
+      <c r="D92">
+        <v>68.5</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>0.99450549450549275</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="4"/>
+        <v>2.5430480700195868</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="5"/>
+        <v>69.745787129786066</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D2:D92">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>